--- a/metrics/disk_usage.xlsx
+++ b/metrics/disk_usage.xlsx
@@ -434,7 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -452,49 +452,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mysql</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>284.37 GB</t>
-        </is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>39.060546875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sqlite</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>72.92 GB</t>
-        </is>
+          <t>SQLite</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>32.99557113647461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>postgresql</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>121.12 GB</t>
-        </is>
+          <t>PostgreSQL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>37.55517243500799</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mongodb</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>9.45 GB</t>
-        </is>
+          <t>MongoDB</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>47.72810499835759</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/disk_usage.xlsx
+++ b/metrics/disk_usage.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.060546875</v>
+        <v>39.740234375</v>
       </c>
     </row>
     <row r="3">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.99557113647461</v>
+        <v>33.46481704711914</v>
       </c>
     </row>
     <row r="4">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.55517243500799</v>
+        <v>38.01848589628935</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.72810499835759</v>
+        <v>47.73055886477232</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/disk_usage.xlsx
+++ b/metrics/disk_usage.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.740234375</v>
+        <v>3.039337158203125</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.01848589628935</v>
+        <v>40.49220751598477</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.73055886477232</v>
+        <v>152.7227372182533</v>
       </c>
     </row>
   </sheetData>
